--- a/HireProUs_E2EWorkFlow.xlsx
+++ b/HireProUs_E2EWorkFlow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="428">
   <si>
     <t>RT upload CV</t>
   </si>
@@ -1307,6 +1307,9 @@
   </si>
   <si>
     <t>Customer_External</t>
+  </si>
+  <si>
+    <t>24/09/2021</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15025,8 +15028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="C104" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20597,7 +20600,7 @@
         <v>415</v>
       </c>
       <c r="Q123" s="80" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="15.75" thickBot="1">
